--- a/biology/Botanique/Dioscorea/Dioscorea.xlsx
+++ b/biology/Botanique/Dioscorea/Dioscorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dioscorea est un genre de plantes de la famille des Dioscoreaceae. Il contient plusieurs centaines d'espèces valides. Le genre Dioscorea fut nommé par Charles Plumier pour honorer la mémoire de Dioscoride[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dioscorea est un genre de plantes de la famille des Dioscoreaceae. Il contient plusieurs centaines d'espèces valides. Le genre Dioscorea fut nommé par Charles Plumier pour honorer la mémoire de Dioscoride.
 De nombreuses espèces à tubercule comestible sont appelées « igname ». D'autres espèces ont un tubercule toxique ou simplement impropre à la consommation, même cuit, et ne sont pas nommées ainsi. C'est le cas du tamier (Dioscorea communis) dont les jeunes pousses sont consommées mais dont le tubercule est toxique.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dioscorea abyssinica Hochst. ex Kunth
@@ -602,7 +616,7 @@
 Dioscorea valdiviensis R.Knuth
 Dioscorea villosa L.
 Liste complète des espèces selon Kew
-Selon World Checklist of Selected Plant Families (WCSP)  (6 décembre 2013)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 décembre 2013) :
 Dioscorea abysmophila Maguire &amp; Steyerm. (1989)
 Dioscorea abyssinica Hochst. ex Kunth (1850)
 Dioscorea acanthogene Rusby (1910)
